--- a/biology/Botanique/Meloidogyne_hapla/Meloidogyne_hapla.xlsx
+++ b/biology/Botanique/Meloidogyne_hapla/Meloidogyne_hapla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nématode cécidogène du Nord
 Meloidogyne hapla, communément appelé le Nématode cécidogène du Nord, est une espèce de vers ronds de la famille des Heteroderidae. C'est un important parasite des plantes classé en parasitologie dans le genre Meloidogyne (nématodes à galles ou nématodes des nodosités des racines). Son nom vernaculaire anglais est Root-knot nematode.
@@ -513,9 +525,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Meloidogyne hapla a été initialement décrite en 1949 par le nématologiste américain Benjamin Goodwin Chitwood[1] (1907-1972).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Meloidogyne hapla a été initialement décrite en 1949 par le nématologiste américain Benjamin Goodwin Chitwood (1907-1972).
 </t>
         </is>
       </c>
